--- a/Summary of Cleaning.xlsx
+++ b/Summary of Cleaning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1970663686bd3dab/Documents/2_UNI/APAN frameworks and methods/airbnb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Documents\2_UNI\APAN frameworks and methods\airbnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="8_{E288E0EB-6A8F-4538-B55E-DC817ED30F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A6AA0B97-F997-439A-8FE2-E9F26C9FF888}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{E288E0EB-6A8F-4538-B55E-DC817ED30F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41C7C1FE-A2BA-4255-A747-9B9DDF4411E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0E42FDC8-377B-4E36-88D0-5ED86E4AFD02}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$3:$F$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="256">
   <si>
     <t>Observations: 36,839</t>
   </si>
@@ -650,9 +649,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>zipcode</t>
-  </si>
-  <si>
     <t>accommodates</t>
   </si>
   <si>
@@ -777,6 +773,36 @@
   </si>
   <si>
     <t>is_apartment</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Days from 1 Jan 2019</t>
+  </si>
+  <si>
+    <t>Not clean</t>
+  </si>
+  <si>
+    <t>host_about_length</t>
+  </si>
+  <si>
+    <t>host_response100</t>
+  </si>
+  <si>
+    <t>100% response rate or nothing</t>
+  </si>
+  <si>
+    <t>Not useful</t>
+  </si>
+  <si>
+    <t>Not useful - used calculated version</t>
+  </si>
+  <si>
+    <t>latitude, longitude</t>
+  </si>
+  <si>
+    <t>recent_update</t>
   </si>
 </sst>
 </file>
@@ -792,12 +818,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -812,9 +844,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,29 +1162,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB89361E-C6E6-41D7-BA0C-BCEEE675E3FD}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="99.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1165,19 +1199,22 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1196,19 +1233,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>97</v>
       </c>
-      <c r="I4">
-        <f>COUNTIFS($B:$B,$H4)</f>
-        <v>1</v>
-      </c>
       <c r="J4">
-        <f>COUNTIFS($B:$B,$H4,$C:$C,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f>COUNTIFS($B:$B,$I4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS($B:$B,$I4,$C:$C,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1227,23 +1264,23 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>96</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I10" si="0">COUNTIFS($B:$B,$H5)</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J10" si="0">COUNTIFS($B:$B,$I5)</f>
         <v>18</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J10" si="1">COUNTIFS($B:$B,$H5,$C:$C,1)</f>
-        <v>4</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
+        <f t="shared" ref="K5:K10" si="1">COUNTIFS($B:$B,$I5,$C:$C,1)</f>
+        <v>9</v>
+      </c>
+      <c r="M5">
         <f>COMBIN(40,8)</f>
         <v>76904685</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1262,19 +1299,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>93</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1293,19 +1330,22 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1316,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1324,19 +1364,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1346,19 +1386,22 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9">
+      <c r="G9" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1368,19 +1411,22 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1388,10 +1434,16 @@
         <v>96</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1401,16 +1453,16 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <f>SUM(I4:I10)</f>
-        <v>91</v>
-      </c>
       <c r="J12">
         <f>SUM(J4:J10)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K4:K10)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1418,10 +1470,19 @@
         <v>96</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1431,8 +1492,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1442,8 +1506,11 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1520,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1464,19 +1534,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="G17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -1495,10 +1568,13 @@
         <v>96</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -1506,10 +1582,13 @@
         <v>96</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1517,10 +1596,13 @@
         <v>96</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1528,10 +1610,13 @@
         <v>93</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1551,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1562,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1571,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1579,19 +1664,19 @@
         <v>95</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1624,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1827,7 @@
         <v>99</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1776,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1796,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1816,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1836,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1856,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1876,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1896,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1916,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1936,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1956,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1976,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1996,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2016,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2036,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2056,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2076,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2096,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2116,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2136,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2156,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2176,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2196,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2213,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2263,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2280,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2371,7 +2456,10 @@
         <v>94</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2460,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2477,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2497,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2517,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2537,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2557,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2577,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2597,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2617,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2637,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2658,11 +2746,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F94" xr:uid="{B7E6B9AA-8FDD-4AF7-8640-098656A6E232}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F94">
-      <sortCondition ref="B3:B94"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
